--- a/backend/data/test.xlsx
+++ b/backend/data/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>questions</t>
   </si>
@@ -37,27 +37,34 @@
     <t>marks</t>
   </si>
   <si>
-    <t>1.ques</t>
-  </si>
-  <si>
-    <t>sss</t>
+    <t>1. Who is the third prime minister of india</t>
+  </si>
+  <si>
+    <t>manmohan sing</t>
+  </si>
+  <si>
+    <t>Lalbahadur Shastri</t>
+  </si>
+  <si>
+    <t>Javaharlal Nehru</t>
+  </si>
+  <si>
+    <t>Indira Gandhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.which of  the folowing is the capital of india
+</t>
+  </si>
+  <si>
+    <t>awa</t>
+  </si>
+  <si>
+    <t>dde</t>
   </si>
   <si>
     <t>ssssad</t>
   </si>
   <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>2.esd</t>
-  </si>
-  <si>
-    <t>awa</t>
-  </si>
-  <si>
-    <t>dde</t>
-  </si>
-  <si>
     <t>waw</t>
   </si>
   <si>
@@ -71,6 +78,81 @@
   </si>
   <si>
     <t>esdffc</t>
+  </si>
+  <si>
+    <t>which of  the folowing is the capital of india</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pune </t>
+  </si>
+  <si>
+    <t>kolkata</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sdsd</t>
+  </si>
+  <si>
+    <t>cddc</t>
+  </si>
+  <si>
+    <t>cdc</t>
+  </si>
+  <si>
+    <t>ccdc</t>
+  </si>
+  <si>
+    <t>qw</t>
+  </si>
+  <si>
+    <t>sxaaa</t>
+  </si>
+  <si>
+    <t>dssed</t>
+  </si>
+  <si>
+    <t>vfg</t>
+  </si>
+  <si>
+    <t>asdx</t>
+  </si>
+  <si>
+    <t>wsd</t>
+  </si>
+  <si>
+    <t>efd</t>
+  </si>
+  <si>
+    <t>dcxs</t>
+  </si>
+  <si>
+    <t>mdkd</t>
+  </si>
+  <si>
+    <t>dmdmmd</t>
+  </si>
+  <si>
+    <t>mmdmd</t>
+  </si>
+  <si>
+    <t>d,x,slls</t>
+  </si>
+  <si>
+    <t>ssd</t>
   </si>
 </sst>
 </file>
@@ -79,9 +161,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,22 +174,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,6 +204,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -131,36 +253,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,62 +298,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,16 +522,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,9 +577,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,43 +595,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,154 +623,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1009,13 +1097,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J8"/>
+  <dimension ref="C3:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="3:10">
       <c r="C3" t="s">
@@ -1040,44 +1128,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
-      <c r="C5" t="s">
+    <row r="5" ht="72" spans="3:10">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:10">
-      <c r="C6" t="s">
-        <v>11</v>
+    <row r="6" ht="115.2" spans="3:10">
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1088,19 +1176,19 @@
     </row>
     <row r="7" spans="3:10">
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1111,10 +1199,10 @@
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1123,13 +1211,197 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="115.2" spans="3:10">
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
